--- a/biology/Botanique/Maria_Candida_Henrique_Mamede/Maria_Candida_Henrique_Mamede.xlsx
+++ b/biology/Botanique/Maria_Candida_Henrique_Mamede/Maria_Candida_Henrique_Mamede.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maria Candida Henrique Mamede, née le 13 juillet 1956, est une chercheuse botaniste brésilienne.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maria Candida Henrique Mamede a obtenu son doctorat en sciences biologiques de l'Université de São Paulo dirigé par  Ana Maria Giulietti en 1988. 
-Elle est chercheuse scientifique à l'Institut de botanique du jardin botanique de São Paulo et membre de la Société botanique du Brésil. Elle a encadré 4 thèses de doctorats. Elle travaille sur  la taxonomie des phanérogames, en particulier les Begoniaceae et les Malpighiaceae[1].
+Elle est chercheuse scientifique à l'Institut de botanique du jardin botanique de São Paulo et membre de la Société botanique du Brésil. Elle a encadré 4 thèses de doctorats. Elle travaille sur  la taxonomie des phanérogames, en particulier les Begoniaceae et les Malpighiaceae.
 Begonia calvescens est élevé en 2004 au rang d'une nouvelle espèce grâce à son travail réalisé avec son étudiante Eliane de Lima Jacques
 </t>
         </is>
